--- a/biology/Médecine/Narcose_à_l'azote/Narcose_à_l'azote.xlsx
+++ b/biology/Médecine/Narcose_à_l'azote/Narcose_à_l'azote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Narcose_%C3%A0_l%27azote</t>
+          <t>Narcose_à_l'azote</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La narcose à l'azote, aussi nommée ivresse des profondeurs, est due à l'excès d'azote et agit sur le système nerveux en entraînant des troubles du comportement. Cet effet a été découvert en 1930 par Hill et Mac Leod.
 D'autres gaz ont également un effet narcotique : le xénon, le krypton et l'argon. D'autres gaz ont peu ou pas d'effets narcotiques et sont employés dans ce cadre en plongée sous-marine : il s'agit essentiellement de l'hélium.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Narcose_%C3%A0_l%27azote</t>
+          <t>Narcose_à_l'azote</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une grande partie des narcoses survient lors de la plongée profonde. Les plongeurs la  ressentent parfois vers 30 mètres et plus systématiquement à partir de 60 mètres[1]. Des études ont cependant montré que des effets significatifs pouvaient être mesurés à des profondeurs plus faibles (dès 15 m)[2]. La pression environnante augmentant, la pression partielle de l'azote augmente en application de la loi de Dalton.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une grande partie des narcoses survient lors de la plongée profonde. Les plongeurs la  ressentent parfois vers 30 mètres et plus systématiquement à partir de 60 mètres. Des études ont cependant montré que des effets significatifs pouvaient être mesurés à des profondeurs plus faibles (dès 15 m). La pression environnante augmentant, la pression partielle de l'azote augmente en application de la loi de Dalton.
 Les gaz à effets narcotiques sont biochimiquement inertes : ils n'interagissent pas en modifiant la chimie cellulaire. Ils ont, a priori, un simple effet mécanique. Deux mécanismes sont suspectés, résultant à chaque fois en une modification de la perméabilité de la  membrane cellulaire à certains composants :
 l'hypothèse lipidique : les gaz se diffuseraient dans la double couche de lipides formant la membrane cellulaire, la distendant.
 l'hypothèse protéique, suspectée dans les années 60 : les gaz interagiraient directement sur les protéines de la membrane cellulaire.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Narcose_%C3%A0_l%27azote</t>
+          <t>Narcose_à_l'azote</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La narcose entraîne des troubles du comportement qui diffèrent d'un individu à l'autre. La sensibilité par rapport à la narcose n'est pas la même pour tout le monde, ni la même d'un jour sur l'autre. Dans les effets de la narcose on peut citer :
 euphorie ;
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Narcose_%C3%A0_l%27azote</t>
+          <t>Narcose_à_l'azote</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Réaction et prévention</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'attitude à avoir face à un plongeur victime d'une narcose est de le faire remonter à une profondeur moindre pour faire diminuer la pression partielle de l'azote. Les effets se dissipent assez rapidement. Une narcose peut provoquer une amnésie et certains plongeurs ne se souviennent pas du comportement qu'ils ont pu avoir au moment de la narcose.
 L'organisme s'accoutume aux effets de l'azote. Des plongeurs ayant l'habitude de descendre à des profondeurs élevées voient les effets de la narcose diminuer.
